--- a/500all/speech_level/speeches_CHRG-114hhrg97564.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97564.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400630</t>
   </si>
   <si>
-    <t>Daniel Lipinski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you, Chairwoman Comstock, for holding this hearing on the science and ethics of new gene editing technologies.    I want to thank all the witnesses for being here today and look forward to your testimony.    Although we're talking about gene editing technologies that are very new, it's important to mention that humans have been altering the genomes of species through selective breeding for thousands of years. And since the 1970s, it has been possible to directly manipulate DNA, which led to a biotechnology revolution and significant economic growth.    Then we had the Human Genome Project to sequence the human genome, and it was coordinated by the Department of Energy and the National Institutes of Health. The full human genome was sequenced in 2003, opening up whole new possibilities for diagnosing and treating diseases. One such pathway led to the invention of the CRISPR technology.    Thanks to new gene editing technologies, which include CRISPR, we're able to add, remove, and replace DNA bases. They can be thought of as search-and-replace tools for DNA. They're incredibly powerful technologies that have the potential to transform the healthcare, energy, and agricultural sectors. Although new, these technologies were the outgrowth of decades of fundamental research, some of which was supported by the National Science Foundation.    We are here today because a Chinese research group recently published a paper in which they used these technologies to try to modify human embryos. That paper highlights scientific and ethical issues with these technologies, especially if they are being used to modify human germline cells as opposed to adult somatic cells.    I look forward to hearing about the science behind these technologies, as well as how the United States can be a leader in addressing the safety and ethical concerns associated with them.    I understand the National Academies has launched a major initiative around human gene editing technologies. In the 1970s, the National Academies played a similar role dealing with the then-new biotechnologies, and I look forward to hearing more about what they're planning to do concerning these new gene editing technologies. I also look forward to hearing about some of the potential nonhuman applications.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Foster</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Foster. Thank you, and I'd like to thank the whole Research and Technology Subcommittee, including the Chair, Congresswoman Comstock, and Ranking Member Lipinski for allowing me to join you here today. And similarly, I wanted to thank Chairman Smith and Ranking Member Johnson for agreeing to hold this hearing. And a very special thank you to the witnesses for taking their time out for this very important issue.    It is rare that prominent members of the scientific community come together to warn our leaders of technological breakthroughs that our legal system and society may not be prepared for, and yet, this is exactly what appears to be happening with recent discoveries in genetic editing tools.    As the last Ph.D. scientist in Congress, I am afraid I've served a sort of a lightning rod for many of these warnings and I take them very seriously.    I want to commend the National Academy of Sciences and the Institute of Medicine for the launch of their major initiative on human gene editing, and I want to make sure that Congress does everything constructive that it can to make sure that this is handled responsibly.    There is the possibility of very great benefits from these new technologies, and what makes them really revolutionary is what they can mean for humans, for example, replacing bone marrow of someone suffering from sickle cell disease with a modified version of their own marrow with the genetic defect removed.    However, if genetic modifications are made to so-called germline cells--these are sperm, eggs, embryos--then the modifications will be carried forward to future generations, which has implications that we need to carefully consider. We're on the verge of a technological breakthrough that could change the future of mankind and we must not blindly charge ahead.    Thank you, and I yield back my time.</t>
   </si>
   <si>
@@ -76,36 +70,21 @@
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Madam Chair.    I do look forward, as do the others, to today's discussion on a new development in biology, which has been called ``a game changer,'' ``revolutionary,'' ``powerful,'' and ``a major issue for all humanity.''    The new discoveries in genetically engineering human DNA offer potential cures for devastating genetic disorders. But the speed at which these new, simpler, and cheaper technologies are being used in the lab also presents ethical and health concerns. Most of the scientific community members have been clear: the science and ethics of this new technology must be resolved in order to prevent dangerous abuses and unintended consequences.    A recent report from China, where teams of researchers have begun to experiment with engineering DNA in human embryos, is alarming. This is an area where the United States can and should provide scientific and moral leadership. We need to better understand the technology and procedures being used so that we can ensure patients are treated in the safest and most ethical manner possible.    An April editorial in Science magazine called for a prudent path forward for genomic engineering. It recommended a moratorium on further research, while creating public forums for scientists, ethicists, and policymakers to discover the--to discuss ``the attendant ethical, social, and legal implications of genome modification.'' This is why it is important that the House Science Committee is holding the first Congressional hearing on this profound and complex subject.    The purpose of the Science Committee is to explore the significance of scientific discoveries, as well as their potential implications for humankind. But we also must always be conscious of the potential ethical and moral issues raised by previously unimagined scientific breakthroughs. We must take the lead in reviewing new and innovative areas of science, such as genetically engineered DNA.    So I look forward, Madam Chair, to this informative discussion today, and we have an excellent panel of witnesses to hear from as well.    And I'll yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you.    As a Northwestern University alumnus, I'm very excited to have Dr. McNally here today. To say an aside, Dr. Dzau, I'm also an alum of Duke University, and unfortunately for Dr. Doudna, an alum of Stanford also.    Dr. McNally is the Director of the Center for Genetic Medicine and Professor in the Departments of Medicine and Biochemistry at Northwestern University's Feinberg School of Medicine. She is a cardiologist who specializes in inherited forms of heart disease. Dr. McNally's research has identified genes and mechanisms for how genetic lead to heart and muscle disease. She has an undergraduate degree in biology and philosophy from Barnard College at Columbia University and an M.D. and Ph.D. from the Albert Einstein College of Medicine.    It is my pleasure to welcome Dr. McNally to our committee and look forward to her testimony.    Chairwoman Comstock. Okay. And our final witness is Dr. Jeffrey Kahn, the Robert Henry Levi and Ryda Hecht Levi Professor of Bioethics and Public Policy at the Johns Hopkins Berman Institute of Bioethics and a Professor in the Department of Health Policy and Management at the Johns Hopkins Bloomberg School of Public Health. Dr. Khan received his bachelor's in microbiology from the University of California, Los Angeles, his master's in public health from Johns Hopkins, and his Ph.D. in philosophy and bioethics from Georgetown University.    In order to allow time for discussion, we would ask that you limit your testimony to five minutes and your entire written statement will be made part of the record.    I now recognize Dr. Dzau for five minutes to present his testimony.</t>
   </si>
   <si>
-    <t>Dzau</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Dzau. Good afternoon, Chairman Smith, Chairwoman Comstock, Ranking Member Lipinski, and Subcommittee Members. As you heard, I'm Victor Dzau. I'm the President of the Institute of Medicine, which will soon be named the National Academy of Medicine on July 1.    I'm pleased to be here on behalf of the National Academies of Sciences, Engineering, and Medicine. The Academies operate under a Congressional Charter signed by Abraham Lincoln to provide advice to the Nation on matters where science, technology, and medicine can solve complex challenges and thereby improve people's lives.    Thank you for the opportunity to speak with you today about this very important matter of human gene editing and the major initiative that we have at the National Academies launched to help guide decision-making in this area.    The Academies have an established record of leadership on advising on emerging and often controversial areas of science, particularly genetic research, such as recombinant DNA and stem cell research. Our initiative is marshaling the best scientific evidence, medical, ethical, legal, and other expertise to help you and the Nation obtain a thorough understanding of gene editing and its potential risks and benefits. Our work is intended to provide a solid foundation to help inform decisions and policies on this research.    As you will hear from other witnesses today, gene editing technology holds great promise. In fact, powerful new tools such as CRISPR/Cas9 developed by my colleague Dr. Doudna and others, as well as other genetic engineering technology, allow researchers now to precisely modify the genetic makeup of any living organism, including humans. The possible benefit application for such technologies are many. They could offer a cure to devastating genetic diseases such as Huntington's disease, as you heard, or sickle cell anemia. It can help improve and understand the treatment of many other illnesses.    These technologies also present complex challenges both to scientific and medical communities and to society as a whole. Of particular concern is the potential to make permanent modification to human DNA in nuclei of eggs, sperm, or human embryos that are then passed down to succeeding generations known as germline gene editing. Research that attempts to alter the human germline raises important issues in so many different ways about safety, risk, social, economic, ethical, and regulatory considerations. So although more remains to be done before these technologies can be deployed safely, their availability certainly intensifies this debate among scientists and physicians about such research.    Here in the United States there are legislative prohibitions on the use of federal funds for research of human embryos and there exist constraints on such research when subject to oversight by the U.S. Food and Drug Administration or other government agencies. These constraints, however, do not apply to work done internationally without federal funds and without the intent to seek federal approval of any product of that research. So clearly, we have reached a critical juncture in genetic editing research and guidance is needed.    The National Academies of Sciences, Engineering, and Medicine are prepared to provide that guidance based on an in-depth review of science underlying gene editing, the potential benefits, and the valid concerns raised by this research. Toward that end, our initiative on human gene editing research is already underway. Just last week, we held the first meeting of a multidisciplinary advisory group that will help us steer our initiative and ensure the Academies' efforts are comprehensive, inclusive, and transparent.    Since much of this research is done internationally, the Academies will convene a global summit to obtain multinational perspectives on recent scientific development in human gene editing and the associated ethical and governance issues. Concurrently, we'll appoint an expert committee to conduct a comprehensive study of the scientific underpinning and clinical, ethical, legal, and social implications of human gene editing. We hope that we will come up with recommendations which can inform the Nation for decisions in this area.    All of us--scientists, physicians, policymakers, and public--want to do everything possible to ensure the scientific and medical breakthroughs benefit all of mankind and do no harm. The Academies are certainly ready to help.    I would be very happy to answer any questions the Subcommittee may have. Thank you.</t>
   </si>
   <si>
-    <t>Doudna</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Doudna. Good afternoon, Chairwoman Comstock and the rest of the Members of the Committee. It's a great pleasure for me to be here and have the opportunity to talk with you about science that I've been involved with from its origin and involved in leading the discussion of where it's going.    I wanted to start by saying that this is research that originated as a basic science project funded in part by the National Science Foundation. We did not aim to develop a genome editing technology but in the course of the experiments that we were doing, it became clear that what started as a study of a bacterial immune system, the way bacteria fight the flu, could actually be reengineered and re-harnessed really as a technology for changing sequences in the genomes of cells and whole organisms.    I wanted to tell you a little bit more about the science behind this to explain a little bit about how it works and why it's revolutionary. So I think what really makes this distinct from other ways of manipulating DNA and cells is that it's a very simple system. It relies I would really make the analogy to software that you use for your computer. Here we have a protein called Cas9 that can be easily reprogrammed by using a short piece of nucleic acid called RNA that enables this protein to be directed to essentially any DNA sequence in a genome of an organism. And because genome sequencing has become very prevalent and is becoming less and less expensive, we have an exciting convergence of technologies that give us information about the entire genome in a cell or an organism and now a tool that allows scientists to change that sequence in a very precise fashion so we can do things, as was mentioned in the opening statements, like correct mutations that would otherwise lead to genetic disease.    So this is, I think, a very exciting moment in biology. It's opened up a lot of opportunities for research, for clinical applications in the future, but it also raises various questions about the way that this technology should be employed going forward, and in particular in our discussion today the question of whether and when this technology should be employed to change the sequence in the human germline in eggs or sperm or embryos that would lead to a genetically modified person that would be a mutation that could be passed down to their children.    And I realized fairly early on in our research that this technology was likely to be applicable in the human germline, and that led me to initiate a discussion initially with some--a fairly small group of scientists in California. We met in January of this year in the Napa Valley to discuss this very issue and we spent a day. We had--that small meeting included scientists, clinicians, as well as bioethicists to discuss the various issues around human germline editing, and that meeting resulted in a perspective that was published in Science magazine about two months ago that was referred to in the opening statements for--that called for a prudent path forward in any kind of clinical application of germline editing in humans.    I do want to point out that our perspective favors research in this area. I think we feel as scientists that it's very important to have data so that we can make informed decisions about future potential applications, and I think this is a--I think many of us appreciate this is a technology that could be very helpful for people that have inherited genetic disorders. However, to ensure that any kind of application clinically in the human germline was safe and really was used in an ethical fashion, we do need to understand how this technology operates in those types of cells.    Thank you.</t>
   </si>
   <si>
-    <t>McNally</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. McNally. Thank you.    On behalf of Northwestern University, I'd like to thank Chairwoman Comstock and Ranking Member Lipinski for inviting me here today.    I'm Elizabeth McNally. I'm the Ward Professor of Genetic Medicine, and I direct the Center for Genetic Medicine at Northwestern. I'm a cardiologist and I specialize in providing care for patients and families with inherited forms of heart disease. Over the last decade, we've seen a dramatic increase in available genetic testing and we now routinely provide genetic diagnosis, risk assessment, and importantly, risk reduction for genetic diseases that affect the heart.    Diseases like cystic fibrosis, Duchenne muscular dystrophy, sickle cell anemia are those that are caused by mutations in single genes. The gene editing techniques that we are here discussing offer the opportunity for permanent lifelong treatment of those disorders. With advances in DNA sequencing technology, it is now possible to sequence an individual genome in a day. For less than the cost of an MRI, a genome can be analyzed with high accuracy pinpointing single gene mutations. The Office of Rare Diseases identifies nearly 7,000 rare diseases and many of these are genetic in origin, often arising from single mutations. The ORD estimates that nearly 30 million Americans are affected by rare diseases. More than half of rare diseases affect children.    Concomitant with advances in genetic diagnoses, there are parallel leaps in genome editing. CRISPR/Cas9 represents a significant advance for genome editing. Because of the co-development of gene editing and stem cell biology, there is significant potential clinical application. Induced pluripotent human stem cells can be made from blood, skin, and other mature human cells. For my field, cardiology, skin cells can actually form beating heart-like cells in a dish allowing us to discern how mutations cause disease and letting us test how to correct these diseases. The human population is not placed at risk by these experiments in cells and it seems fair to say that the human population would actually be harmed by not doing these experiments since the research offers the potent opportunity to improve human health.    Stem cells of the bone marrow, muscle, skin, and other organs can be isolated and edited. With these methods, it would be possible to cure sickle cell anemia or Duchenne muscular dystrophy. In mice, CRISPR/Cas9 mediated correction of fertilized eggs corrected the defect for Duchenne muscular dystrophy. The method, while imperfect, was associated with a remarkably high correction rate.    Recently, a group of distinguished scientists called for careful consideration of gene editing in fertilized oocytes fearing the potential for germline gene editing and ultimately human eugenics. These discussions were enhanced and prompted by the recent report which we've heard about from Liang, et al., which described the efforts using CRISPR/Cas9 in fertilized oocytes.    A regulatory framework for gene editing should encompass several key points. It should permit research to optimize and improve CRISPR/Cas9 and related technologies. It should permit in vitro and cell-based gene editing technologies, including those in embryonic and induced pluripotent stem cells. It should permit in vitro and cell-based editing with the intent to reintroduce cells into humans as a therapeutic measure for somatic cells. And it should permit the generation of gene-edited animals for the purposes of scientific research. It may consider limiting or even prohibiting gene editing under the circumstances where human transmission of gene-edited germ lines would occur.    But would we ever really consider germline gene editing? So we should consider the scenario of pre-implantation genetic diagnosis, otherwise known as PGD. PGD is pursued by families to avoid transmitting genetic diseases. PGD involves in vitro fertilization coupled with genetic testing. PGD is not covered by insurance, and yet for some families, they make this choice. These may be families who are already struggling with caring for one disabled child and who cannot care for a second disabled child.    PGD is a personal option and one that is made solely by parents and families. In principle, it is possible that the efficiency of genome editing will improve so that pre-implantation genetic correction could accompany PGD. With this process, gene editing to correct and eliminate a genetic disease could become reality. While the temptation may be to ban or limit this possibility, we should do so only with caution. Parents of children with genetic disease express significant concern, responsibility, and often dismay for having passed on mutations to their children. A parent's desire to protect children is undeniable. As a society and as a nation, we protect children.    It may be tempting and easiest to ban gene editing where germline transmission could occur, yet the justified use of this approach is certainly conceivable and may one day be appropriate.    Thank you.</t>
   </si>
   <si>
-    <t>Kahn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Kahn. Thank you. Chairwoman Comstock, Chairman Smith, and Ranking Member Lipinski, thank you for the opportunity to testify today on this timely and vitally important subject.    As you heard in the introductions, I am a Professor of Bioethics in Public Policy at the Johns Hopkins Berman Institute of Bioethics in Baltimore.    Also relevant to my comments today, I am also currently Chair of an Institute of Medicine Consensus Study commissioned by the FDA on ethical and social policy considerations of novel techniques for prevention of mitochondrial transmission in women to their offspring. Given that this study is considering issues related to the topic of today's hearing and the work of that committee is ongoing, I will restrict my comments to general observations and an overview of ethical and policy landscape related to gene editing.    I'll focus my comments on three main topics: first, policy history and related areas of science and biomedical research; second, ethical issues raised by gene editing technologies; and third, relevant existing ethical frameworks and approaches to oversight.    The relevant policy history started in 1975, and we heard some mention of this earlier, with the Asilomar Conference on recombinant DNA molecules whose summary statement focused on containment of the risks of creating and working with genetically modified organisms. And with the admonition to avoid experiments that ``pose such serious dangers that their performance should not be undertaken at this time,'' along with a call for continuing reassessment of issues arising in light of new knowledge gained with the experience of the then-new genetic technologies. And we've heard from Dr. Dzau that the National Academies are effectively taking on the same role 40 years later.    These voluntary suggestions that came from the Asilomar summary gave way to more robust oversight as the use of genetic technologies became more refined and with the initial attempts to treat disease in humans. It should be noted that that's 40 years ago, and in the current environment, it would be very difficult for voluntary statements from a collection of even esteemed U.S. scientists to prevent research from going forward internationally, as we've seen already with the publication of the Chinese laboratory experiment.    The ethical issues posed by gene editing and related technologies for modifying human DNA fall into three general categories of concern: first, the implications of the modification of germline DNA, and we've heard some about that already; second, the implications of interfering in processes that should be off-limits to humans. Sometimes those are sort of generally termed ``playing God,'' and that's problematic in some people's minds; and third, the potential for selection or introduction of traits for other than treatment or avoidance of disease, such as physical or behavioral traits or even enhancements.    The focus of much ethical analysis in the application of manipulation of genetic information in humans has been on changes that affect the germline, that is changes that are heritable and therefore able to be passed on to future generations of individuals. The basis of these concerns relate to the uncertainty of the effects of genetic notification, the inability to ``undo'' unintended genetic changes or limit their effects, and the risks of passing on such unintended changes and their consequences to future generations. And that would of course go on forever.    These ethical concerns have been addressed through a range of approaches in order to limit certain types of research or to provide prospective oversight prior to particular proposals being undertaken. We heard from Dr. Dzau that there are restrictions on federal funding of research that involves human embryos. Privately funded research is not affected by these restrictions, though the convention is that research on embryos should take place no later than 14 days after fertilization, and that's a limit also accepted by most countries engaged in research on human embryos. I should also note that there seems to be growing agreement that research should be restricted to nonviable human embryos.    There are a number of institution-level oversight mechanisms that will apply to gene editing. That includes Institutional Biosafety Committees, which are charged with overseeing research with recombinant or synthetic nucleic acid molecules; Institutional Stem Cell Research Oversight Committees, which are charged with, as their name implies, research on human embryonic stem cells and related areas of research. And as the technologies are introduced into human subjects, Institutional Review Boards will be charged with overseeing any potential use on humans.    Lastly, there's a role to be played by the scientific publication community. They have--journal publishers have an increasingly important role to play in setting and enforcing standards of behavior within the scientific community since publication of findings in the peer-reviewed scientific literature signifies the endorsement of the community of researchers.    Journals also play an additional critical role with requirements on the ethics standards being respected, assurances authors' contributions are duly noted, and that human subjects are protected. So there's a role to be played on the part of the journal publication process that will restrict the potential of any unethical research going forward.    Let me conclude by saying the United States has played a leadership role in this area in recombinant DNA and has the opportunity to do so going forward. There will be gaps identified in the process that the National Academies has set out on that need to be identified and addressed, and it is an appropriate time to consider what those ought to be.    Thank you.</t>
   </si>
   <si>
@@ -151,9 +130,6 @@
     <t>412634</t>
   </si>
   <si>
-    <t>John R. Moolenaar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Moolenaar. Thank you, Madam Chair.    And thank you for your presentations today and my compliments to you on the work you're doing. It's very sophisticated and it seems that it has tremendous potential for good.    On the area of ethics of this I wanted to just explore a few different areas. Dr. Khan, I wanted to start with you. When you're advising on the ethics of a new genetic technology, are there certain ethical lines that should never be crossed, and if so, how are those lines drawn?</t>
   </si>
   <si>
@@ -193,9 +169,6 @@
     <t>412319</t>
   </si>
   <si>
-    <t>Paul Tonko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Madam Chair.    This hearing shines a light on a difficult but indeed important issue and I appreciate my colleagues' focus on the ethical and legal issues surrounding this new technology.    I'm also assured to see that experts in the medical and scientific community are coming together to debate this issue and to discuss potential policy implications. However, as we explore the boundaries of what science is capable of and what is ethical and what should be legal, we should also take a moment to appreciate just how remarkable these advances are. We recognize that these new gene editing technologies, including CRISPR, are the outgrowth of decades of fundamental research supported by federal agencies, including the National Science Foundation.    So to Dr. Doudna and Dr. McNally, could you please speak to the importance of federal investments in fundamental research, especially the need to support research that may not have any known commercial application at the time?</t>
   </si>
   <si>
@@ -229,9 +202,6 @@
     <t>412608</t>
   </si>
   <si>
-    <t>Gary J. Palmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Madam Chair.    Several folks have mentioned the research on stem cell. Dr. Tim Townes at UAB is a very good friend of mind and doing world-class research in that area.    I've got just a few questions. Dr. Dzau and Dr. Kahn, the United States and Europe have often disagreed on regulations and policies and other areas of biotechnology, for example, genetically modified organisms. How does that impact international scientific cooperation? And do you anticipate a similar challenge in human gene editing?</t>
   </si>
   <si>
@@ -277,9 +247,6 @@
     <t>412514</t>
   </si>
   <si>
-    <t>Eric Swalwell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Swalwell. Thank you, Madam Chair, and thank you to our panelists.    My first question relates to something that a number of the Members have brought up, which is it seems that America and our investments in federally funded research have been in decline, and as a result, our successes have been in decline and our ability to attract and recruit and retain some of the best and brightest scientists may be in decline. So let's just for argument's sake go back to 1995. I was 14 years old. And the Human Genome Project was just starting to get off the ground and many great results came out of that. That was 20 years ago. Would each witness just say more or less has America and its--have you seen the investments that we've made as far as federally funded research, has that made America more or less exceptional in this field? So just tell me more or less. And I'll start with Dr. Dzau, just one word.</t>
   </si>
   <si>
@@ -373,9 +340,6 @@
     <t>412610</t>
   </si>
   <si>
-    <t>Bruce Westerman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Madam Chair, and thank you, panel, for your invigorating testimony.    Dr. Dzau, what's your anticipated timeline for the initiative on human gene editing?</t>
   </si>
   <si>
@@ -460,9 +424,6 @@
     <t>412630</t>
   </si>
   <si>
-    <t>Ralph Lee Abraham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Abraham. Well, after I read you all's testimony last night I went on and read each of you all's bios. Your parents must be very proud.    We all in this room I think understand the potential that this type of research can lead to not only in the human endeavors but in plant technology, curing world hunger. So it's applicable to so many aspects of humanity.    And to--I think it was Dr.--your point, Dr. McNally, that it probably would be unethical if we have a child with sickle cell in the ALL and this therapy is available not to offer it.    Dr. Doudna, I salute your intelligence for recognizing it even though I know you weren't particularly looking for the CRISPR/Cas9 technology that you recognized it. I compared it last night--I was reading--to Fleming discovering penicillin. He had been--I think maybe this CRISPR can save as millions of lives as penicillin has, so kudos to you guys for what you do.    I guess the question I'm leading up to, the old adage if you get two doctors in a room, you get three different opinions, as we know very true. That's certainly on my end of the stick.    Dr. Doudna, you published I think an article in a science magazine that you wanted this moratorium and, Dr. Dzau, you've been pushing for. Are you guys getting some pushback from members of your community that says, you know, no, we don't need a moratorium and let this thing go? Let this genie out of the bottle and don't put it back in?</t>
   </si>
   <si>
@@ -505,9 +466,6 @@
     <t xml:space="preserve">    Mr. Moolenaar. Thank you.    I now recognize Mr. Sherman.</t>
   </si>
   <si>
-    <t>Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you, Mr. Chairman, for holding these hearings. This has been an area of intense interest on my part since the year 2000 when I went to the Floor and said that the most important decision we will make this century is whether our successor species is carbon-based or silicon-based, whether the new and intelligent species on this planet is the product of genetic engineering or the product of computer engineering.    Some of you will remember I served on this Committee in the 107th and 108th Congresses and this was pretty much my main reason for serving on the Science Committee.    I should bring to the attention of this Subcommittee that on June 19, 2008--transcript available--the relevant Subcommittee of Foreign Affairs had a hearing titled ``Genetic and Other Human Modification Technologies: Sensible International Regulation or a New Kind of Arms Race?'' And in fact the analogy to what we're talking about here is the only other technology that was equally explosive perhaps, and that is nuclear weapons technology. In 1939 Albert Einstein wrote to Roosevelt saying what was possible and policymakers had only six years before that technology literally exploded onto the scene. Thank God we've got a little bit more time but the Nonproliferation Treaty took many decades after 1939 or after 1945 and I think could be a good model for what we need here.    Dr. Kahn, it may be too long to list but I don't know whether America is exactly number one in this technology or whether Britain or China might be slightly ahead, but we're all within, I think, a few years, but there are a whole bunch of other countries either at that level or maybe four or five years behind. Can you even list the countries that within five years could be where we are now?</t>
   </si>
   <si>
@@ -575,9 +533,6 @@
   </si>
   <si>
     <t>412501</t>
-  </si>
-  <si>
-    <t>Suzanne Bonamici</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Mr. Chairman. And thank you to the Chairman and Ranking Member for holding this hearing about this important topic, and I--my absence for most of the hearing was only because I was in another hearing. It does not indicate my lack of interest in the subject.    And I'm really glad that we have this, I agree, very incredibly qualified panel and I especially appreciate the gender diversity. As someone who works on education issues and trying to get more women in STEM, thank you for having a balanced panel.    So I missed--a lot of the questions have already been asked but there's a couple of things that I wanted to follow up on. There's been a lot of attention on using gene editing technologies in human embryos, and of course we--with the press from what happened in China, that's getting attention. But I know that a lot of the research is not in human embryos, so could you discuss how the technologies are being used in research today in other areas, including in organisms other than humans? And also can you talk about the potential promise from sectors other than healthcare, energy, for example?</t>
@@ -1075,11 +1030,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1101,11 +1054,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1125,13 +1076,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1153,11 +1102,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1177,13 +1124,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1205,11 +1150,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1229,13 +1172,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1255,13 +1196,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1281,13 +1220,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1307,13 +1244,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1333,13 +1268,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1359,13 +1292,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1385,13 +1316,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1411,13 +1340,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
         <v>27</v>
-      </c>
-      <c r="H15" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1439,11 +1366,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1463,13 +1388,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1491,11 +1414,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1515,13 +1436,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1543,11 +1462,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1567,13 +1484,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1595,11 +1510,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1619,13 +1532,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1647,11 +1558,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1671,13 +1580,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" t="s">
-        <v>45</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1697,13 +1604,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s">
-        <v>29</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1723,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" t="s">
-        <v>45</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1749,13 +1652,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1775,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" t="s">
-        <v>45</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1801,13 +1700,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1827,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
         <v>44</v>
-      </c>
-      <c r="G31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1853,13 +1748,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1879,13 +1772,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1905,13 +1796,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" t="s">
-        <v>45</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1931,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1957,13 +1844,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" t="s">
-        <v>45</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1983,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G37" t="s">
-        <v>59</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2009,13 +1892,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2035,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" t="s">
-        <v>59</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2061,13 +1940,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2087,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2113,13 +1988,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" t="s">
-        <v>59</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2139,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2165,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
         <v>58</v>
-      </c>
-      <c r="G44" t="s">
-        <v>59</v>
-      </c>
-      <c r="H44" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2191,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2217,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
-      </c>
-      <c r="G46" t="s">
-        <v>59</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2243,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>70</v>
-      </c>
-      <c r="G47" t="s">
-        <v>71</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2269,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2295,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>70</v>
-      </c>
-      <c r="G49" t="s">
-        <v>71</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2321,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2347,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>70</v>
-      </c>
-      <c r="G51" t="s">
-        <v>71</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2373,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2399,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>70</v>
-      </c>
-      <c r="G53" t="s">
-        <v>71</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2425,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s">
-        <v>29</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2451,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
         <v>70</v>
-      </c>
-      <c r="G55" t="s">
-        <v>71</v>
-      </c>
-      <c r="H55" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2477,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>29</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2503,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>70</v>
-      </c>
-      <c r="G57" t="s">
-        <v>71</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2529,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
-        <v>29</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2555,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2581,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>70</v>
-      </c>
-      <c r="G60" t="s">
-        <v>71</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2607,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>86</v>
-      </c>
-      <c r="G61" t="s">
-        <v>87</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2633,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2659,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2685,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2711,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" t="s">
-        <v>29</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2737,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>86</v>
-      </c>
-      <c r="G66" t="s">
-        <v>87</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2763,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2789,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>86</v>
-      </c>
-      <c r="G68" t="s">
-        <v>87</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2815,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2841,13 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
+        <v>76</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
         <v>86</v>
-      </c>
-      <c r="G70" t="s">
-        <v>87</v>
-      </c>
-      <c r="H70" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2867,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2893,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
-      </c>
-      <c r="G72" t="s">
-        <v>87</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2919,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2945,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>86</v>
-      </c>
-      <c r="G74" t="s">
-        <v>87</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2971,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2997,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>86</v>
-      </c>
-      <c r="G76" t="s">
-        <v>87</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3023,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3049,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>86</v>
-      </c>
-      <c r="G78" t="s">
-        <v>87</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3075,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" t="s">
-        <v>29</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3101,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>86</v>
-      </c>
-      <c r="G80" t="s">
-        <v>87</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3127,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3153,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>86</v>
-      </c>
-      <c r="G82" t="s">
-        <v>87</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3179,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>15</v>
-      </c>
-      <c r="G83" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3205,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>86</v>
-      </c>
-      <c r="G84" t="s">
-        <v>87</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3231,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3257,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>86</v>
-      </c>
-      <c r="G86" t="s">
-        <v>87</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3283,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
-      </c>
-      <c r="G87" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3309,13 +3092,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>86</v>
-      </c>
-      <c r="G88" t="s">
-        <v>87</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3335,13 +3116,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3361,13 +3140,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>86</v>
-      </c>
-      <c r="G90" t="s">
-        <v>87</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3387,13 +3164,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>118</v>
-      </c>
-      <c r="G91" t="s">
-        <v>119</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3413,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3439,13 +3212,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>118</v>
-      </c>
-      <c r="G93" t="s">
-        <v>119</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3465,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3491,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>118</v>
-      </c>
-      <c r="G95" t="s">
-        <v>119</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3517,13 +3284,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>15</v>
-      </c>
-      <c r="G96" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3543,13 +3308,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>118</v>
-      </c>
-      <c r="G97" t="s">
-        <v>119</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3569,13 +3332,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>15</v>
-      </c>
-      <c r="G98" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3595,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>118</v>
-      </c>
-      <c r="G99" t="s">
-        <v>119</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3621,13 +3380,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>15</v>
-      </c>
-      <c r="G100" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3647,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
+        <v>107</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
         <v>118</v>
-      </c>
-      <c r="G101" t="s">
-        <v>119</v>
-      </c>
-      <c r="H101" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3673,13 +3428,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>15</v>
-      </c>
-      <c r="G102" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3699,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3725,13 +3476,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>15</v>
-      </c>
-      <c r="G104" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3751,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>15</v>
-      </c>
-      <c r="G105" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3777,13 +3524,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>15</v>
-      </c>
-      <c r="G106" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3803,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>15</v>
-      </c>
-      <c r="G107" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3829,13 +3572,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>15</v>
-      </c>
-      <c r="G108" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3855,13 +3596,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>15</v>
-      </c>
-      <c r="G109" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3881,13 +3620,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>15</v>
-      </c>
-      <c r="G110" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3907,13 +3644,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>15</v>
-      </c>
-      <c r="G111" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3933,13 +3668,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>15</v>
-      </c>
-      <c r="G112" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3959,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>15</v>
-      </c>
-      <c r="G113" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3985,13 +3716,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>15</v>
-      </c>
-      <c r="G114" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4011,13 +3740,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>15</v>
-      </c>
-      <c r="G115" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4037,13 +3764,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>15</v>
-      </c>
-      <c r="G116" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4063,13 +3788,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>15</v>
-      </c>
-      <c r="G117" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4089,13 +3812,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
-      </c>
-      <c r="G118" t="s">
-        <v>45</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4115,13 +3836,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>147</v>
-      </c>
-      <c r="G119" t="s">
-        <v>148</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4141,13 +3860,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>15</v>
-      </c>
-      <c r="G120" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4167,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>147</v>
-      </c>
-      <c r="G121" t="s">
-        <v>148</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4193,13 +3908,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>15</v>
-      </c>
-      <c r="G122" t="s">
-        <v>29</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4219,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>147</v>
-      </c>
-      <c r="G123" t="s">
-        <v>148</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4245,13 +3956,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>15</v>
-      </c>
-      <c r="G124" t="s">
-        <v>29</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4271,13 +3980,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>147</v>
-      </c>
-      <c r="G125" t="s">
-        <v>148</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4297,13 +4004,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>15</v>
-      </c>
-      <c r="G126" t="s">
-        <v>29</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4323,13 +4028,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>147</v>
-      </c>
-      <c r="G127" t="s">
-        <v>148</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4349,13 +4052,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>15</v>
-      </c>
-      <c r="G128" t="s">
-        <v>29</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4375,13 +4076,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>147</v>
-      </c>
-      <c r="G129" t="s">
-        <v>148</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4401,13 +4100,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>15</v>
-      </c>
-      <c r="G130" t="s">
-        <v>29</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4427,13 +4124,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>147</v>
-      </c>
-      <c r="G131" t="s">
+        <v>135</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
         <v>148</v>
-      </c>
-      <c r="H131" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4453,13 +4148,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
-      </c>
-      <c r="G132" t="s">
-        <v>45</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4479,13 +4172,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>15</v>
-      </c>
-      <c r="G133" t="s">
-        <v>163</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4505,13 +4196,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>15</v>
-      </c>
-      <c r="G134" t="s">
-        <v>29</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4531,13 +4220,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>15</v>
-      </c>
-      <c r="G135" t="s">
-        <v>163</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4557,13 +4244,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>15</v>
-      </c>
-      <c r="G136" t="s">
-        <v>29</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4583,13 +4268,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>15</v>
-      </c>
-      <c r="G137" t="s">
-        <v>163</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4609,13 +4292,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>15</v>
-      </c>
-      <c r="G138" t="s">
-        <v>29</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4635,13 +4316,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>15</v>
-      </c>
-      <c r="G139" t="s">
-        <v>163</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4661,13 +4340,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>15</v>
-      </c>
-      <c r="G140" t="s">
-        <v>29</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4687,13 +4364,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>15</v>
-      </c>
-      <c r="G141" t="s">
-        <v>163</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4713,13 +4388,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>15</v>
-      </c>
-      <c r="G142" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4739,13 +4412,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>15</v>
-      </c>
-      <c r="G143" t="s">
-        <v>163</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4765,13 +4436,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>15</v>
-      </c>
-      <c r="G144" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4791,13 +4460,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>15</v>
-      </c>
-      <c r="G145" t="s">
-        <v>163</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4817,13 +4484,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>15</v>
-      </c>
-      <c r="G146" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4843,13 +4508,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>15</v>
-      </c>
-      <c r="G147" t="s">
-        <v>163</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4869,13 +4532,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4895,13 +4556,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>15</v>
-      </c>
-      <c r="G149" t="s">
-        <v>163</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4921,13 +4580,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>15</v>
-      </c>
-      <c r="G150" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4947,13 +4604,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>15</v>
-      </c>
-      <c r="G151" t="s">
-        <v>163</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4973,13 +4628,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>15</v>
-      </c>
-      <c r="G152" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4999,13 +4652,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>15</v>
-      </c>
-      <c r="G153" t="s">
-        <v>163</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5025,13 +4676,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>44</v>
-      </c>
-      <c r="G154" t="s">
-        <v>45</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5051,13 +4700,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>15</v>
-      </c>
-      <c r="G155" t="s">
-        <v>163</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5077,13 +4724,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>44</v>
-      </c>
-      <c r="G156" t="s">
-        <v>45</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5103,13 +4748,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>186</v>
-      </c>
-      <c r="G157" t="s">
-        <v>187</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5129,13 +4772,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>15</v>
-      </c>
-      <c r="G158" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5155,13 +4796,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>186</v>
-      </c>
-      <c r="G159" t="s">
-        <v>187</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5181,13 +4820,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>15</v>
-      </c>
-      <c r="G160" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5207,13 +4844,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>186</v>
-      </c>
-      <c r="G161" t="s">
-        <v>187</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5233,13 +4868,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>15</v>
-      </c>
-      <c r="G162" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5259,13 +4892,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>186</v>
-      </c>
-      <c r="G163" t="s">
-        <v>187</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5285,13 +4916,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>15</v>
-      </c>
-      <c r="G164" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5311,13 +4940,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>186</v>
-      </c>
-      <c r="G165" t="s">
-        <v>187</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5337,13 +4964,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>44</v>
-      </c>
-      <c r="G166" t="s">
-        <v>45</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5363,13 +4988,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>70</v>
-      </c>
-      <c r="G167" t="s">
-        <v>71</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5389,13 +5012,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>15</v>
-      </c>
-      <c r="G168" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5415,13 +5036,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>70</v>
-      </c>
-      <c r="G169" t="s">
-        <v>71</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5441,13 +5060,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
-      </c>
-      <c r="G170" t="s">
-        <v>45</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5467,13 +5084,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>15</v>
-      </c>
-      <c r="G171" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5493,13 +5108,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>15</v>
-      </c>
-      <c r="G172" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5519,13 +5132,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>15</v>
-      </c>
-      <c r="G173" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5545,13 +5156,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>15</v>
-      </c>
-      <c r="G174" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5571,13 +5180,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>15</v>
-      </c>
-      <c r="G175" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5597,13 +5204,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>15</v>
-      </c>
-      <c r="G176" t="s">
-        <v>29</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5623,13 +5228,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>15</v>
-      </c>
-      <c r="G177" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5649,13 +5252,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>15</v>
-      </c>
-      <c r="G178" t="s">
-        <v>29</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5675,13 +5276,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>15</v>
-      </c>
-      <c r="G179" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5701,13 +5300,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>15</v>
-      </c>
-      <c r="G180" t="s">
-        <v>29</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5727,13 +5324,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>15</v>
-      </c>
-      <c r="G181" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5753,13 +5348,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>15</v>
-      </c>
-      <c r="G182" t="s">
-        <v>29</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5779,13 +5372,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>15</v>
-      </c>
-      <c r="G183" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5805,13 +5396,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>15</v>
-      </c>
-      <c r="G184" t="s">
-        <v>29</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5831,13 +5420,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>15</v>
-      </c>
-      <c r="G185" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5857,13 +5444,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>15</v>
-      </c>
-      <c r="G186" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5883,13 +5468,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>15</v>
-      </c>
-      <c r="G187" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5909,13 +5492,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>15</v>
-      </c>
-      <c r="G188" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5935,13 +5516,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>15</v>
-      </c>
-      <c r="G189" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5961,13 +5540,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>44</v>
-      </c>
-      <c r="G190" t="s">
-        <v>45</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97564.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97564.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="231">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400630</t>
   </si>
   <si>
+    <t>Lipinski</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you, Chairwoman Comstock, for holding this hearing on the science and ethics of new gene editing technologies.    I want to thank all the witnesses for being here today and look forward to your testimony.    Although we're talking about gene editing technologies that are very new, it's important to mention that humans have been altering the genomes of species through selective breeding for thousands of years. And since the 1970s, it has been possible to directly manipulate DNA, which led to a biotechnology revolution and significant economic growth.    Then we had the Human Genome Project to sequence the human genome, and it was coordinated by the Department of Energy and the National Institutes of Health. The full human genome was sequenced in 2003, opening up whole new possibilities for diagnosing and treating diseases. One such pathway led to the invention of the CRISPR technology.    Thanks to new gene editing technologies, which include CRISPR, we're able to add, remove, and replace DNA bases. They can be thought of as search-and-replace tools for DNA. They're incredibly powerful technologies that have the potential to transform the healthcare, energy, and agricultural sectors. Although new, these technologies were the outgrowth of decades of fundamental research, some of which was supported by the National Science Foundation.    We are here today because a Chinese research group recently published a paper in which they used these technologies to try to modify human embryos. That paper highlights scientific and ethical issues with these technologies, especially if they are being used to modify human germline cells as opposed to adult somatic cells.    I look forward to hearing about the science behind these technologies, as well as how the United States can be a leader in addressing the safety and ethical concerns associated with them.    I understand the National Academies has launched a major initiative around human gene editing technologies. In the 1970s, the National Academies played a similar role dealing with the then-new biotechnologies, and I look forward to hearing more about what they're planning to do concerning these new gene editing technologies. I also look forward to hearing about some of the potential nonhuman applications.</t>
   </si>
   <si>
@@ -61,6 +70,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Foster</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Foster. Thank you, and I'd like to thank the whole Research and Technology Subcommittee, including the Chair, Congresswoman Comstock, and Ranking Member Lipinski for allowing me to join you here today. And similarly, I wanted to thank Chairman Smith and Ranking Member Johnson for agreeing to hold this hearing. And a very special thank you to the witnesses for taking their time out for this very important issue.    It is rare that prominent members of the scientific community come together to warn our leaders of technological breakthroughs that our legal system and society may not be prepared for, and yet, this is exactly what appears to be happening with recent discoveries in genetic editing tools.    As the last Ph.D. scientist in Congress, I am afraid I've served a sort of a lightning rod for many of these warnings and I take them very seriously.    I want to commend the National Academy of Sciences and the Institute of Medicine for the launch of their major initiative on human gene editing, and I want to make sure that Congress does everything constructive that it can to make sure that this is handled responsibly.    There is the possibility of very great benefits from these new technologies, and what makes them really revolutionary is what they can mean for humans, for example, replacing bone marrow of someone suffering from sickle cell disease with a modified version of their own marrow with the genetic defect removed.    However, if genetic modifications are made to so-called germline cells--these are sperm, eggs, embryos--then the modifications will be carried forward to future generations, which has implications that we need to carefully consider. We're on the verge of a technological breakthrough that could change the future of mankind and we must not blindly charge ahead.    Thank you, and I yield back my time.</t>
   </si>
   <si>
@@ -70,21 +82,39 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Madam Chair.    I do look forward, as do the others, to today's discussion on a new development in biology, which has been called ``a game changer,'' ``revolutionary,'' ``powerful,'' and ``a major issue for all humanity.''    The new discoveries in genetically engineering human DNA offer potential cures for devastating genetic disorders. But the speed at which these new, simpler, and cheaper technologies are being used in the lab also presents ethical and health concerns. Most of the scientific community members have been clear: the science and ethics of this new technology must be resolved in order to prevent dangerous abuses and unintended consequences.    A recent report from China, where teams of researchers have begun to experiment with engineering DNA in human embryos, is alarming. This is an area where the United States can and should provide scientific and moral leadership. We need to better understand the technology and procedures being used so that we can ensure patients are treated in the safest and most ethical manner possible.    An April editorial in Science magazine called for a prudent path forward for genomic engineering. It recommended a moratorium on further research, while creating public forums for scientists, ethicists, and policymakers to discover the--to discuss ``the attendant ethical, social, and legal implications of genome modification.'' This is why it is important that the House Science Committee is holding the first Congressional hearing on this profound and complex subject.    The purpose of the Science Committee is to explore the significance of scientific discoveries, as well as their potential implications for humankind. But we also must always be conscious of the potential ethical and moral issues raised by previously unimagined scientific breakthroughs. We must take the lead in reviewing new and innovative areas of science, such as genetically engineered DNA.    So I look forward, Madam Chair, to this informative discussion today, and we have an excellent panel of witnesses to hear from as well.    And I'll yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you.    As a Northwestern University alumnus, I'm very excited to have Dr. McNally here today. To say an aside, Dr. Dzau, I'm also an alum of Duke University, and unfortunately for Dr. Doudna, an alum of Stanford also.    Dr. McNally is the Director of the Center for Genetic Medicine and Professor in the Departments of Medicine and Biochemistry at Northwestern University's Feinberg School of Medicine. She is a cardiologist who specializes in inherited forms of heart disease. Dr. McNally's research has identified genes and mechanisms for how genetic lead to heart and muscle disease. She has an undergraduate degree in biology and philosophy from Barnard College at Columbia University and an M.D. and Ph.D. from the Albert Einstein College of Medicine.    It is my pleasure to welcome Dr. McNally to our committee and look forward to her testimony.    Chairwoman Comstock. Okay. And our final witness is Dr. Jeffrey Kahn, the Robert Henry Levi and Ryda Hecht Levi Professor of Bioethics and Public Policy at the Johns Hopkins Berman Institute of Bioethics and a Professor in the Department of Health Policy and Management at the Johns Hopkins Bloomberg School of Public Health. Dr. Khan received his bachelor's in microbiology from the University of California, Los Angeles, his master's in public health from Johns Hopkins, and his Ph.D. in philosophy and bioethics from Georgetown University.    In order to allow time for discussion, we would ask that you limit your testimony to five minutes and your entire written statement will be made part of the record.    I now recognize Dr. Dzau for five minutes to present his testimony.</t>
   </si>
   <si>
+    <t>Dzau</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Dzau. Good afternoon, Chairman Smith, Chairwoman Comstock, Ranking Member Lipinski, and Subcommittee Members. As you heard, I'm Victor Dzau. I'm the President of the Institute of Medicine, which will soon be named the National Academy of Medicine on July 1.    I'm pleased to be here on behalf of the National Academies of Sciences, Engineering, and Medicine. The Academies operate under a Congressional Charter signed by Abraham Lincoln to provide advice to the Nation on matters where science, technology, and medicine can solve complex challenges and thereby improve people's lives.    Thank you for the opportunity to speak with you today about this very important matter of human gene editing and the major initiative that we have at the National Academies launched to help guide decision-making in this area.    The Academies have an established record of leadership on advising on emerging and often controversial areas of science, particularly genetic research, such as recombinant DNA and stem cell research. Our initiative is marshaling the best scientific evidence, medical, ethical, legal, and other expertise to help you and the Nation obtain a thorough understanding of gene editing and its potential risks and benefits. Our work is intended to provide a solid foundation to help inform decisions and policies on this research.    As you will hear from other witnesses today, gene editing technology holds great promise. In fact, powerful new tools such as CRISPR/Cas9 developed by my colleague Dr. Doudna and others, as well as other genetic engineering technology, allow researchers now to precisely modify the genetic makeup of any living organism, including humans. The possible benefit application for such technologies are many. They could offer a cure to devastating genetic diseases such as Huntington's disease, as you heard, or sickle cell anemia. It can help improve and understand the treatment of many other illnesses.    These technologies also present complex challenges both to scientific and medical communities and to society as a whole. Of particular concern is the potential to make permanent modification to human DNA in nuclei of eggs, sperm, or human embryos that are then passed down to succeeding generations known as germline gene editing. Research that attempts to alter the human germline raises important issues in so many different ways about safety, risk, social, economic, ethical, and regulatory considerations. So although more remains to be done before these technologies can be deployed safely, their availability certainly intensifies this debate among scientists and physicians about such research.    Here in the United States there are legislative prohibitions on the use of federal funds for research of human embryos and there exist constraints on such research when subject to oversight by the U.S. Food and Drug Administration or other government agencies. These constraints, however, do not apply to work done internationally without federal funds and without the intent to seek federal approval of any product of that research. So clearly, we have reached a critical juncture in genetic editing research and guidance is needed.    The National Academies of Sciences, Engineering, and Medicine are prepared to provide that guidance based on an in-depth review of science underlying gene editing, the potential benefits, and the valid concerns raised by this research. Toward that end, our initiative on human gene editing research is already underway. Just last week, we held the first meeting of a multidisciplinary advisory group that will help us steer our initiative and ensure the Academies' efforts are comprehensive, inclusive, and transparent.    Since much of this research is done internationally, the Academies will convene a global summit to obtain multinational perspectives on recent scientific development in human gene editing and the associated ethical and governance issues. Concurrently, we'll appoint an expert committee to conduct a comprehensive study of the scientific underpinning and clinical, ethical, legal, and social implications of human gene editing. We hope that we will come up with recommendations which can inform the Nation for decisions in this area.    All of us--scientists, physicians, policymakers, and public--want to do everything possible to ensure the scientific and medical breakthroughs benefit all of mankind and do no harm. The Academies are certainly ready to help.    I would be very happy to answer any questions the Subcommittee may have. Thank you.</t>
   </si>
   <si>
+    <t>Doudna</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Doudna. Good afternoon, Chairwoman Comstock and the rest of the Members of the Committee. It's a great pleasure for me to be here and have the opportunity to talk with you about science that I've been involved with from its origin and involved in leading the discussion of where it's going.    I wanted to start by saying that this is research that originated as a basic science project funded in part by the National Science Foundation. We did not aim to develop a genome editing technology but in the course of the experiments that we were doing, it became clear that what started as a study of a bacterial immune system, the way bacteria fight the flu, could actually be reengineered and re-harnessed really as a technology for changing sequences in the genomes of cells and whole organisms.    I wanted to tell you a little bit more about the science behind this to explain a little bit about how it works and why it's revolutionary. So I think what really makes this distinct from other ways of manipulating DNA and cells is that it's a very simple system. It relies I would really make the analogy to software that you use for your computer. Here we have a protein called Cas9 that can be easily reprogrammed by using a short piece of nucleic acid called RNA that enables this protein to be directed to essentially any DNA sequence in a genome of an organism. And because genome sequencing has become very prevalent and is becoming less and less expensive, we have an exciting convergence of technologies that give us information about the entire genome in a cell or an organism and now a tool that allows scientists to change that sequence in a very precise fashion so we can do things, as was mentioned in the opening statements, like correct mutations that would otherwise lead to genetic disease.    So this is, I think, a very exciting moment in biology. It's opened up a lot of opportunities for research, for clinical applications in the future, but it also raises various questions about the way that this technology should be employed going forward, and in particular in our discussion today the question of whether and when this technology should be employed to change the sequence in the human germline in eggs or sperm or embryos that would lead to a genetically modified person that would be a mutation that could be passed down to their children.    And I realized fairly early on in our research that this technology was likely to be applicable in the human germline, and that led me to initiate a discussion initially with some--a fairly small group of scientists in California. We met in January of this year in the Napa Valley to discuss this very issue and we spent a day. We had--that small meeting included scientists, clinicians, as well as bioethicists to discuss the various issues around human germline editing, and that meeting resulted in a perspective that was published in Science magazine about two months ago that was referred to in the opening statements for--that called for a prudent path forward in any kind of clinical application of germline editing in humans.    I do want to point out that our perspective favors research in this area. I think we feel as scientists that it's very important to have data so that we can make informed decisions about future potential applications, and I think this is a--I think many of us appreciate this is a technology that could be very helpful for people that have inherited genetic disorders. However, to ensure that any kind of application clinically in the human germline was safe and really was used in an ethical fashion, we do need to understand how this technology operates in those types of cells.    Thank you.</t>
   </si>
   <si>
+    <t>McNally</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. McNally. Thank you.    On behalf of Northwestern University, I'd like to thank Chairwoman Comstock and Ranking Member Lipinski for inviting me here today.    I'm Elizabeth McNally. I'm the Ward Professor of Genetic Medicine, and I direct the Center for Genetic Medicine at Northwestern. I'm a cardiologist and I specialize in providing care for patients and families with inherited forms of heart disease. Over the last decade, we've seen a dramatic increase in available genetic testing and we now routinely provide genetic diagnosis, risk assessment, and importantly, risk reduction for genetic diseases that affect the heart.    Diseases like cystic fibrosis, Duchenne muscular dystrophy, sickle cell anemia are those that are caused by mutations in single genes. The gene editing techniques that we are here discussing offer the opportunity for permanent lifelong treatment of those disorders. With advances in DNA sequencing technology, it is now possible to sequence an individual genome in a day. For less than the cost of an MRI, a genome can be analyzed with high accuracy pinpointing single gene mutations. The Office of Rare Diseases identifies nearly 7,000 rare diseases and many of these are genetic in origin, often arising from single mutations. The ORD estimates that nearly 30 million Americans are affected by rare diseases. More than half of rare diseases affect children.    Concomitant with advances in genetic diagnoses, there are parallel leaps in genome editing. CRISPR/Cas9 represents a significant advance for genome editing. Because of the co-development of gene editing and stem cell biology, there is significant potential clinical application. Induced pluripotent human stem cells can be made from blood, skin, and other mature human cells. For my field, cardiology, skin cells can actually form beating heart-like cells in a dish allowing us to discern how mutations cause disease and letting us test how to correct these diseases. The human population is not placed at risk by these experiments in cells and it seems fair to say that the human population would actually be harmed by not doing these experiments since the research offers the potent opportunity to improve human health.    Stem cells of the bone marrow, muscle, skin, and other organs can be isolated and edited. With these methods, it would be possible to cure sickle cell anemia or Duchenne muscular dystrophy. In mice, CRISPR/Cas9 mediated correction of fertilized eggs corrected the defect for Duchenne muscular dystrophy. The method, while imperfect, was associated with a remarkably high correction rate.    Recently, a group of distinguished scientists called for careful consideration of gene editing in fertilized oocytes fearing the potential for germline gene editing and ultimately human eugenics. These discussions were enhanced and prompted by the recent report which we've heard about from Liang, et al., which described the efforts using CRISPR/Cas9 in fertilized oocytes.    A regulatory framework for gene editing should encompass several key points. It should permit research to optimize and improve CRISPR/Cas9 and related technologies. It should permit in vitro and cell-based gene editing technologies, including those in embryonic and induced pluripotent stem cells. It should permit in vitro and cell-based editing with the intent to reintroduce cells into humans as a therapeutic measure for somatic cells. And it should permit the generation of gene-edited animals for the purposes of scientific research. It may consider limiting or even prohibiting gene editing under the circumstances where human transmission of gene-edited germ lines would occur.    But would we ever really consider germline gene editing? So we should consider the scenario of pre-implantation genetic diagnosis, otherwise known as PGD. PGD is pursued by families to avoid transmitting genetic diseases. PGD involves in vitro fertilization coupled with genetic testing. PGD is not covered by insurance, and yet for some families, they make this choice. These may be families who are already struggling with caring for one disabled child and who cannot care for a second disabled child.    PGD is a personal option and one that is made solely by parents and families. In principle, it is possible that the efficiency of genome editing will improve so that pre-implantation genetic correction could accompany PGD. With this process, gene editing to correct and eliminate a genetic disease could become reality. While the temptation may be to ban or limit this possibility, we should do so only with caution. Parents of children with genetic disease express significant concern, responsibility, and often dismay for having passed on mutations to their children. A parent's desire to protect children is undeniable. As a society and as a nation, we protect children.    It may be tempting and easiest to ban gene editing where germline transmission could occur, yet the justified use of this approach is certainly conceivable and may one day be appropriate.    Thank you.</t>
   </si>
   <si>
+    <t>Kahn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Kahn. Thank you. Chairwoman Comstock, Chairman Smith, and Ranking Member Lipinski, thank you for the opportunity to testify today on this timely and vitally important subject.    As you heard in the introductions, I am a Professor of Bioethics in Public Policy at the Johns Hopkins Berman Institute of Bioethics in Baltimore.    Also relevant to my comments today, I am also currently Chair of an Institute of Medicine Consensus Study commissioned by the FDA on ethical and social policy considerations of novel techniques for prevention of mitochondrial transmission in women to their offspring. Given that this study is considering issues related to the topic of today's hearing and the work of that committee is ongoing, I will restrict my comments to general observations and an overview of ethical and policy landscape related to gene editing.    I'll focus my comments on three main topics: first, policy history and related areas of science and biomedical research; second, ethical issues raised by gene editing technologies; and third, relevant existing ethical frameworks and approaches to oversight.    The relevant policy history started in 1975, and we heard some mention of this earlier, with the Asilomar Conference on recombinant DNA molecules whose summary statement focused on containment of the risks of creating and working with genetically modified organisms. And with the admonition to avoid experiments that ``pose such serious dangers that their performance should not be undertaken at this time,'' along with a call for continuing reassessment of issues arising in light of new knowledge gained with the experience of the then-new genetic technologies. And we've heard from Dr. Dzau that the National Academies are effectively taking on the same role 40 years later.    These voluntary suggestions that came from the Asilomar summary gave way to more robust oversight as the use of genetic technologies became more refined and with the initial attempts to treat disease in humans. It should be noted that that's 40 years ago, and in the current environment, it would be very difficult for voluntary statements from a collection of even esteemed U.S. scientists to prevent research from going forward internationally, as we've seen already with the publication of the Chinese laboratory experiment.    The ethical issues posed by gene editing and related technologies for modifying human DNA fall into three general categories of concern: first, the implications of the modification of germline DNA, and we've heard some about that already; second, the implications of interfering in processes that should be off-limits to humans. Sometimes those are sort of generally termed ``playing God,'' and that's problematic in some people's minds; and third, the potential for selection or introduction of traits for other than treatment or avoidance of disease, such as physical or behavioral traits or even enhancements.    The focus of much ethical analysis in the application of manipulation of genetic information in humans has been on changes that affect the germline, that is changes that are heritable and therefore able to be passed on to future generations of individuals. The basis of these concerns relate to the uncertainty of the effects of genetic notification, the inability to ``undo'' unintended genetic changes or limit their effects, and the risks of passing on such unintended changes and their consequences to future generations. And that would of course go on forever.    These ethical concerns have been addressed through a range of approaches in order to limit certain types of research or to provide prospective oversight prior to particular proposals being undertaken. We heard from Dr. Dzau that there are restrictions on federal funding of research that involves human embryos. Privately funded research is not affected by these restrictions, though the convention is that research on embryos should take place no later than 14 days after fertilization, and that's a limit also accepted by most countries engaged in research on human embryos. I should also note that there seems to be growing agreement that research should be restricted to nonviable human embryos.    There are a number of institution-level oversight mechanisms that will apply to gene editing. That includes Institutional Biosafety Committees, which are charged with overseeing research with recombinant or synthetic nucleic acid molecules; Institutional Stem Cell Research Oversight Committees, which are charged with, as their name implies, research on human embryonic stem cells and related areas of research. And as the technologies are introduced into human subjects, Institutional Review Boards will be charged with overseeing any potential use on humans.    Lastly, there's a role to be played by the scientific publication community. They have--journal publishers have an increasingly important role to play in setting and enforcing standards of behavior within the scientific community since publication of findings in the peer-reviewed scientific literature signifies the endorsement of the community of researchers.    Journals also play an additional critical role with requirements on the ethics standards being respected, assurances authors' contributions are duly noted, and that human subjects are protected. So there's a role to be played on the part of the journal publication process that will restrict the potential of any unethical research going forward.    Let me conclude by saying the United States has played a leadership role in this area in recombinant DNA and has the opportunity to do so going forward. There will be gaps identified in the process that the National Academies has set out on that need to be identified and addressed, and it is an appropriate time to consider what those ought to be.    Thank you.</t>
   </si>
   <si>
@@ -130,6 +160,12 @@
     <t>412634</t>
   </si>
   <si>
+    <t>Moolenaar</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Moolenaar. Thank you, Madam Chair.    And thank you for your presentations today and my compliments to you on the work you're doing. It's very sophisticated and it seems that it has tremendous potential for good.    On the area of ethics of this I wanted to just explore a few different areas. Dr. Khan, I wanted to start with you. When you're advising on the ethics of a new genetic technology, are there certain ethical lines that should never be crossed, and if so, how are those lines drawn?</t>
   </si>
   <si>
@@ -169,6 +205,12 @@
     <t>412319</t>
   </si>
   <si>
+    <t>Tonko</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Madam Chair.    This hearing shines a light on a difficult but indeed important issue and I appreciate my colleagues' focus on the ethical and legal issues surrounding this new technology.    I'm also assured to see that experts in the medical and scientific community are coming together to debate this issue and to discuss potential policy implications. However, as we explore the boundaries of what science is capable of and what is ethical and what should be legal, we should also take a moment to appreciate just how remarkable these advances are. We recognize that these new gene editing technologies, including CRISPR, are the outgrowth of decades of fundamental research supported by federal agencies, including the National Science Foundation.    So to Dr. Doudna and Dr. McNally, could you please speak to the importance of federal investments in fundamental research, especially the need to support research that may not have any known commercial application at the time?</t>
   </si>
   <si>
@@ -202,6 +244,12 @@
     <t>412608</t>
   </si>
   <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Madam Chair.    Several folks have mentioned the research on stem cell. Dr. Tim Townes at UAB is a very good friend of mind and doing world-class research in that area.    I've got just a few questions. Dr. Dzau and Dr. Kahn, the United States and Europe have often disagreed on regulations and policies and other areas of biotechnology, for example, genetically modified organisms. How does that impact international scientific cooperation? And do you anticipate a similar challenge in human gene editing?</t>
   </si>
   <si>
@@ -247,6 +295,12 @@
     <t>412514</t>
   </si>
   <si>
+    <t>Swalwell</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Swalwell. Thank you, Madam Chair, and thank you to our panelists.    My first question relates to something that a number of the Members have brought up, which is it seems that America and our investments in federally funded research have been in decline, and as a result, our successes have been in decline and our ability to attract and recruit and retain some of the best and brightest scientists may be in decline. So let's just for argument's sake go back to 1995. I was 14 years old. And the Human Genome Project was just starting to get off the ground and many great results came out of that. That was 20 years ago. Would each witness just say more or less has America and its--have you seen the investments that we've made as far as federally funded research, has that made America more or less exceptional in this field? So just tell me more or less. And I'll start with Dr. Dzau, just one word.</t>
   </si>
   <si>
@@ -340,6 +394,12 @@
     <t>412610</t>
   </si>
   <si>
+    <t>Westerman</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Madam Chair, and thank you, panel, for your invigorating testimony.    Dr. Dzau, what's your anticipated timeline for the initiative on human gene editing?</t>
   </si>
   <si>
@@ -424,6 +484,12 @@
     <t>412630</t>
   </si>
   <si>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>Ralph</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Abraham. Well, after I read you all's testimony last night I went on and read each of you all's bios. Your parents must be very proud.    We all in this room I think understand the potential that this type of research can lead to not only in the human endeavors but in plant technology, curing world hunger. So it's applicable to so many aspects of humanity.    And to--I think it was Dr.--your point, Dr. McNally, that it probably would be unethical if we have a child with sickle cell in the ALL and this therapy is available not to offer it.    Dr. Doudna, I salute your intelligence for recognizing it even though I know you weren't particularly looking for the CRISPR/Cas9 technology that you recognized it. I compared it last night--I was reading--to Fleming discovering penicillin. He had been--I think maybe this CRISPR can save as millions of lives as penicillin has, so kudos to you guys for what you do.    I guess the question I'm leading up to, the old adage if you get two doctors in a room, you get three different opinions, as we know very true. That's certainly on my end of the stick.    Dr. Doudna, you published I think an article in a science magazine that you wanted this moratorium and, Dr. Dzau, you've been pushing for. Are you guys getting some pushback from members of your community that says, you know, no, we don't need a moratorium and let this thing go? Let this genie out of the bottle and don't put it back in?</t>
   </si>
   <si>
@@ -466,6 +532,9 @@
     <t xml:space="preserve">    Mr. Moolenaar. Thank you.    I now recognize Mr. Sherman.</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you, Mr. Chairman, for holding these hearings. This has been an area of intense interest on my part since the year 2000 when I went to the Floor and said that the most important decision we will make this century is whether our successor species is carbon-based or silicon-based, whether the new and intelligent species on this planet is the product of genetic engineering or the product of computer engineering.    Some of you will remember I served on this Committee in the 107th and 108th Congresses and this was pretty much my main reason for serving on the Science Committee.    I should bring to the attention of this Subcommittee that on June 19, 2008--transcript available--the relevant Subcommittee of Foreign Affairs had a hearing titled ``Genetic and Other Human Modification Technologies: Sensible International Regulation or a New Kind of Arms Race?'' And in fact the analogy to what we're talking about here is the only other technology that was equally explosive perhaps, and that is nuclear weapons technology. In 1939 Albert Einstein wrote to Roosevelt saying what was possible and policymakers had only six years before that technology literally exploded onto the scene. Thank God we've got a little bit more time but the Nonproliferation Treaty took many decades after 1939 or after 1945 and I think could be a good model for what we need here.    Dr. Kahn, it may be too long to list but I don't know whether America is exactly number one in this technology or whether Britain or China might be slightly ahead, but we're all within, I think, a few years, but there are a whole bunch of other countries either at that level or maybe four or five years behind. Can you even list the countries that within five years could be where we are now?</t>
   </si>
   <si>
@@ -533,6 +602,12 @@
   </si>
   <si>
     <t>412501</t>
+  </si>
+  <si>
+    <t>Bonamici</t>
+  </si>
+  <si>
+    <t>Suzanne</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Mr. Chairman. And thank you to the Chairman and Ranking Member for holding this hearing about this important topic, and I--my absence for most of the hearing was only because I was in another hearing. It does not indicate my lack of interest in the subject.    And I'm really glad that we have this, I agree, very incredibly qualified panel and I especially appreciate the gender diversity. As someone who works on education issues and trying to get more women in STEM, thank you for having a balanced panel.    So I missed--a lot of the questions have already been asked but there's a couple of things that I wanted to follow up on. There's been a lot of attention on using gene editing technologies in human embryos, and of course we--with the press from what happened in China, that's getting attention. But I know that a lot of the research is not in human embryos, so could you discuss how the technologies are being used in research today in other areas, including in organisms other than humans? And also can you talk about the potential promise from sectors other than healthcare, energy, for example?</t>
@@ -980,7 +1055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H190"/>
+  <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -988,7 +1063,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1010,4541 +1085,5249 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G25" t="s">
+        <v>48</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G27" t="s">
+        <v>48</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G29" t="s">
+        <v>48</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G31" t="s">
+        <v>48</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G34" t="s">
+        <v>48</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G36" t="s">
+        <v>48</v>
+      </c>
       <c r="H36" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G37" t="s">
+        <v>63</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G39" t="s">
+        <v>63</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G42" t="s">
+        <v>63</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G44" t="s">
+        <v>63</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G46" t="s">
+        <v>63</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G47" t="s">
+        <v>76</v>
+      </c>
       <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G49" t="s">
+        <v>76</v>
+      </c>
       <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G51" t="s">
+        <v>76</v>
+      </c>
       <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G53" t="s">
+        <v>76</v>
+      </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G55" t="s">
+        <v>76</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>61</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G57" t="s">
+        <v>76</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G59" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G60" t="s">
+        <v>76</v>
+      </c>
       <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>76</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G61" t="s">
+        <v>93</v>
+      </c>
       <c r="H61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G62" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G63" t="s">
+        <v>28</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G64" t="s">
+        <v>30</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G65" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>76</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G66" t="s">
+        <v>93</v>
+      </c>
       <c r="H66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G67" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>76</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G68" t="s">
+        <v>93</v>
+      </c>
       <c r="H68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G69" t="s">
+        <v>30</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>76</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G70" t="s">
+        <v>93</v>
+      </c>
       <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G71" t="s">
+        <v>30</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>76</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G72" t="s">
+        <v>93</v>
+      </c>
       <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G73" t="s">
+        <v>26</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>76</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G74" t="s">
+        <v>93</v>
+      </c>
       <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G75" t="s">
+        <v>28</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>76</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G76" t="s">
+        <v>93</v>
+      </c>
       <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G77" t="s">
+        <v>30</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>76</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G78" t="s">
+        <v>93</v>
+      </c>
       <c r="H78" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G79" t="s">
+        <v>32</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>76</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G80" t="s">
+        <v>93</v>
+      </c>
       <c r="H80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G81" t="s">
+        <v>30</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>76</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G82" t="s">
+        <v>93</v>
+      </c>
       <c r="H82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G83" t="s">
+        <v>30</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>76</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G84" t="s">
+        <v>93</v>
+      </c>
       <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>30</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>76</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G86" t="s">
+        <v>93</v>
+      </c>
       <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G87" t="s">
+        <v>28</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>76</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G88" t="s">
+        <v>93</v>
+      </c>
       <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G89" t="s">
+        <v>30</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>76</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G90" t="s">
+        <v>93</v>
+      </c>
       <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>107</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G91" t="s">
+        <v>126</v>
+      </c>
       <c r="H91" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G92" t="s">
+        <v>26</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>107</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G93" t="s">
+        <v>126</v>
+      </c>
       <c r="H93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G94" t="s">
+        <v>26</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>107</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G95" t="s">
+        <v>126</v>
+      </c>
       <c r="H95" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G96" t="s">
+        <v>26</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>107</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G97" t="s">
+        <v>126</v>
+      </c>
       <c r="H97" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>26</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>107</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G99" t="s">
+        <v>126</v>
+      </c>
       <c r="H99" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>26</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>107</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G101" t="s">
+        <v>126</v>
+      </c>
       <c r="H101" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>26</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G104" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G105" t="s">
+        <v>30</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G106" t="s">
+        <v>18</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G107" t="s">
+        <v>28</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G108" t="s">
+        <v>18</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G109" t="s">
+        <v>28</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G110" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G111" t="s">
+        <v>28</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G112" t="s">
+        <v>30</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G113" t="s">
+        <v>18</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G114" t="s">
+        <v>30</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G115" t="s">
+        <v>18</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G116" t="s">
+        <v>28</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G117" t="s">
+        <v>18</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G118" t="s">
+        <v>48</v>
+      </c>
       <c r="H118" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I118" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>135</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G119" t="s">
+        <v>156</v>
+      </c>
       <c r="H119" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I119" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G120" t="s">
+        <v>28</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>135</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G121" t="s">
+        <v>156</v>
+      </c>
       <c r="H121" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I121" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G122" t="s">
+        <v>32</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>135</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G123" t="s">
+        <v>156</v>
+      </c>
       <c r="H123" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I123" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G124" t="s">
+        <v>32</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>135</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G125" t="s">
+        <v>156</v>
+      </c>
       <c r="H125" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I125" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G126" t="s">
+        <v>32</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>135</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G127" t="s">
+        <v>156</v>
+      </c>
       <c r="H127" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I127" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G128" t="s">
+        <v>32</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>135</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G129" t="s">
+        <v>156</v>
+      </c>
       <c r="H129" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I129" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G130" t="s">
+        <v>32</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>135</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G131" t="s">
+        <v>156</v>
+      </c>
       <c r="H131" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I131" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G132" t="s">
+        <v>48</v>
+      </c>
       <c r="H132" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I132" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>172</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
+        <v>32</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>172</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G136" t="s">
+        <v>32</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G137" t="s">
+        <v>172</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G138" t="s">
+        <v>32</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G139" t="s">
+        <v>172</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G140" t="s">
+        <v>32</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G141" t="s">
+        <v>172</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G142" t="s">
+        <v>30</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G143" t="s">
+        <v>172</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G144" t="s">
+        <v>30</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G145" t="s">
+        <v>172</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G146" t="s">
+        <v>30</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G147" t="s">
+        <v>172</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G148" t="s">
+        <v>30</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>14</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G149" t="s">
+        <v>172</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G150" t="s">
+        <v>30</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>14</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G151" t="s">
+        <v>172</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G152" t="s">
+        <v>30</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G153" t="s">
+        <v>172</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G154" t="s">
+        <v>48</v>
+      </c>
       <c r="H154" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I154" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>14</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G155" t="s">
+        <v>172</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G156" t="s">
+        <v>48</v>
+      </c>
       <c r="H156" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I156" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>172</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>195</v>
+      </c>
+      <c r="G157" t="s">
+        <v>196</v>
+      </c>
       <c r="H157" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>197</v>
+      </c>
+      <c r="I157" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>14</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G158" t="s">
+        <v>28</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>172</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>195</v>
+      </c>
+      <c r="G159" t="s">
+        <v>196</v>
+      </c>
       <c r="H159" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>197</v>
+      </c>
+      <c r="I159" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>14</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G160" t="s">
+        <v>26</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>172</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>195</v>
+      </c>
+      <c r="G161" t="s">
+        <v>196</v>
+      </c>
       <c r="H161" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>197</v>
+      </c>
+      <c r="I161" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G162" t="s">
+        <v>28</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>172</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>195</v>
+      </c>
+      <c r="G163" t="s">
+        <v>196</v>
+      </c>
       <c r="H163" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>197</v>
+      </c>
+      <c r="I163" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>14</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G164" t="s">
+        <v>28</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>172</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>195</v>
+      </c>
+      <c r="G165" t="s">
+        <v>196</v>
+      </c>
       <c r="H165" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>197</v>
+      </c>
+      <c r="I165" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G166" t="s">
+        <v>48</v>
+      </c>
       <c r="H166" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I166" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>61</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G167" t="s">
+        <v>76</v>
+      </c>
       <c r="H167" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I167" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G168" t="s">
+        <v>26</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>61</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G169" t="s">
+        <v>76</v>
+      </c>
       <c r="H169" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I169" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G170" t="s">
+        <v>48</v>
+      </c>
       <c r="H170" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I170" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>14</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G171" t="s">
+        <v>18</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G172" t="s">
+        <v>30</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>14</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G173" t="s">
+        <v>18</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>14</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G174" t="s">
+        <v>30</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>14</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G175" t="s">
+        <v>18</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>14</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G176" t="s">
+        <v>32</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>14</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G177" t="s">
+        <v>18</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>14</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G178" t="s">
+        <v>32</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G179" t="s">
+        <v>18</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>14</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G180" t="s">
+        <v>32</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>14</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G181" t="s">
+        <v>18</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>14</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G182" t="s">
+        <v>32</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>14</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G183" t="s">
+        <v>18</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>14</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G184" t="s">
+        <v>32</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>14</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G185" t="s">
+        <v>18</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>14</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G186" t="s">
+        <v>26</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>14</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G187" t="s">
+        <v>18</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>14</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G188" t="s">
+        <v>26</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>14</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G189" t="s">
+        <v>18</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>37</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G190" t="s">
+        <v>48</v>
+      </c>
       <c r="H190" t="s">
-        <v>205</v>
+        <v>49</v>
+      </c>
+      <c r="I190" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97564.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97564.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400630</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Lipinski</t>
   </si>
   <si>
@@ -82,6 +88,9 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -160,6 +169,9 @@
     <t>412634</t>
   </si>
   <si>
+    <t>Vice Chair</t>
+  </si>
+  <si>
     <t>Moolenaar</t>
   </si>
   <si>
@@ -203,6 +215,9 @@
   </si>
   <si>
     <t>412319</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Tonko</t>
@@ -1055,7 +1070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I190"/>
+  <dimension ref="A1:J190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1063,7 +1078,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1088,5246 +1103,5576 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G37" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G39" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H39" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G42" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G44" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s">
-        <v>30</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>33</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G46" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H47" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s">
-        <v>26</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H49" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H51" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I51" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s">
-        <v>26</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G53" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s">
-        <v>32</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>35</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I55" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s">
-        <v>32</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s">
-        <v>32</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>35</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" t="s">
-        <v>26</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>29</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G60" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H60" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I60" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G61" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="H61" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I61" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s">
-        <v>26</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" t="s">
-        <v>28</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>31</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s">
-        <v>30</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>33</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" t="s">
-        <v>32</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>35</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G66" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="H66" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I66" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" t="s">
-        <v>30</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G68" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I68" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" t="s">
-        <v>30</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>33</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G70" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I70" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J70" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s">
-        <v>30</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>33</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G72" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I72" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" t="s">
-        <v>26</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>29</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G74" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I74" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" t="s">
-        <v>28</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>31</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G76" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="H76" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I76" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" t="s">
-        <v>30</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>33</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G78" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="H78" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I78" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" t="s">
-        <v>32</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>35</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G80" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="H80" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I80" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" t="s">
-        <v>30</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>33</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G82" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="H82" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I82" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" t="s">
-        <v>30</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>33</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G84" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="H84" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I84" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J84" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" t="s">
-        <v>30</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>33</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G86" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="H86" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I86" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J86" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" t="s">
-        <v>28</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>31</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G88" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="H88" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I88" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
-      </c>
-      <c r="G89" t="s">
-        <v>30</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>33</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G90" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="H90" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I90" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J90" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G91" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="H91" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I91" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J91" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" t="s">
-        <v>26</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>29</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G93" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="H93" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I93" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J93" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" t="s">
-        <v>26</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>29</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G95" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="H95" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I95" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="J95" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" t="s">
-        <v>26</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>29</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G97" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="H97" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I97" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98" t="s">
-        <v>26</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>29</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G99" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="H99" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I99" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
-      </c>
-      <c r="G100" t="s">
-        <v>26</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>29</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G101" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="H101" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I101" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J101" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
-      </c>
-      <c r="G102" t="s">
-        <v>18</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>20</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
-      </c>
-      <c r="G103" t="s">
-        <v>26</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>29</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
-      </c>
-      <c r="G104" t="s">
-        <v>18</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>20</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
-      </c>
-      <c r="G105" t="s">
-        <v>30</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>33</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
-      </c>
-      <c r="G106" t="s">
-        <v>18</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>20</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
-      </c>
-      <c r="G107" t="s">
-        <v>28</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>31</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
-      </c>
-      <c r="G108" t="s">
-        <v>18</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>20</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
-      </c>
-      <c r="G109" t="s">
-        <v>28</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>31</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
-      </c>
-      <c r="G110" t="s">
-        <v>18</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>20</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>17</v>
-      </c>
-      <c r="G111" t="s">
-        <v>28</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>31</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>17</v>
-      </c>
-      <c r="G112" t="s">
-        <v>30</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>33</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
-      </c>
-      <c r="G113" t="s">
-        <v>18</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>20</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G114" t="s">
-        <v>30</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>33</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
-      </c>
-      <c r="G115" t="s">
-        <v>18</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>20</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>17</v>
-      </c>
-      <c r="G116" t="s">
-        <v>28</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>31</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>17</v>
-      </c>
-      <c r="G117" t="s">
-        <v>18</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>20</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G118" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H118" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I118" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J118" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G119" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="H119" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I119" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J119" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>17</v>
-      </c>
-      <c r="G120" t="s">
-        <v>28</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>31</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G121" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="H121" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I121" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J121" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>17</v>
-      </c>
-      <c r="G122" t="s">
-        <v>32</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>35</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G123" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="H123" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I123" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="J123" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>17</v>
-      </c>
-      <c r="G124" t="s">
-        <v>32</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>35</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G125" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="H125" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I125" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J125" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>17</v>
-      </c>
-      <c r="G126" t="s">
-        <v>32</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>35</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G127" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="H127" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I127" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J127" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
-      </c>
-      <c r="G128" t="s">
-        <v>32</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>35</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G129" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="H129" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I129" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J129" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>17</v>
-      </c>
-      <c r="G130" t="s">
-        <v>32</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>35</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G131" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="H131" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I131" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J131" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G132" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H132" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I132" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J132" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>17</v>
-      </c>
-      <c r="G133" t="s">
-        <v>172</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>177</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>17</v>
-      </c>
-      <c r="G134" t="s">
-        <v>32</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>35</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>17</v>
-      </c>
-      <c r="G135" t="s">
-        <v>172</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>177</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>17</v>
-      </c>
-      <c r="G136" t="s">
-        <v>32</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>35</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>17</v>
-      </c>
-      <c r="G137" t="s">
-        <v>172</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
+        <v>19</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>17</v>
-      </c>
-      <c r="G138" t="s">
-        <v>32</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>35</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>17</v>
-      </c>
-      <c r="G139" t="s">
-        <v>172</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>177</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>17</v>
-      </c>
-      <c r="G140" t="s">
-        <v>32</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>35</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>17</v>
-      </c>
-      <c r="G141" t="s">
-        <v>172</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>177</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>17</v>
-      </c>
-      <c r="G142" t="s">
-        <v>30</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>33</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>17</v>
-      </c>
-      <c r="G143" t="s">
-        <v>172</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>177</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>17</v>
-      </c>
-      <c r="G144" t="s">
-        <v>30</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>33</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>17</v>
-      </c>
-      <c r="G145" t="s">
-        <v>172</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>177</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>17</v>
-      </c>
-      <c r="G146" t="s">
-        <v>30</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>33</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>17</v>
-      </c>
-      <c r="G147" t="s">
-        <v>172</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="148" spans="1:9">
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>17</v>
-      </c>
-      <c r="G148" t="s">
-        <v>30</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>33</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>17</v>
-      </c>
-      <c r="G149" t="s">
-        <v>172</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="150" spans="1:9">
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>17</v>
-      </c>
-      <c r="G150" t="s">
-        <v>30</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>33</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>17</v>
-      </c>
-      <c r="G151" t="s">
-        <v>172</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>177</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>17</v>
-      </c>
-      <c r="G152" t="s">
-        <v>30</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>33</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>17</v>
-      </c>
-      <c r="G153" t="s">
-        <v>172</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>177</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G154" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H154" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I154" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J154" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>17</v>
-      </c>
-      <c r="G155" t="s">
-        <v>172</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>177</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G156" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H156" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I156" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J156" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G157" t="s">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="H157" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I157" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>202</v>
+      </c>
+      <c r="J157" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>17</v>
-      </c>
-      <c r="G158" t="s">
-        <v>28</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>31</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G159" t="s">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="H159" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I159" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>202</v>
+      </c>
+      <c r="J159" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>17</v>
-      </c>
-      <c r="G160" t="s">
-        <v>26</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>29</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G161" t="s">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="H161" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I161" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="162" spans="1:9">
+      <c r="J161" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>17</v>
-      </c>
-      <c r="G162" t="s">
-        <v>28</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>31</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G163" t="s">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="H163" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I163" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>202</v>
+      </c>
+      <c r="J163" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>17</v>
-      </c>
-      <c r="G164" t="s">
-        <v>28</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>31</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G165" t="s">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="H165" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I165" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>202</v>
+      </c>
+      <c r="J165" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G166" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H166" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I166" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J166" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G167" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H167" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I167" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J167" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>17</v>
-      </c>
-      <c r="G168" t="s">
-        <v>26</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>29</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G169" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H169" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I169" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J169" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G170" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H170" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I170" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J170" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>17</v>
-      </c>
-      <c r="G171" t="s">
-        <v>18</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>20</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>17</v>
-      </c>
-      <c r="G172" t="s">
-        <v>30</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>33</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>17</v>
-      </c>
-      <c r="G173" t="s">
-        <v>18</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>20</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>17</v>
-      </c>
-      <c r="G174" t="s">
-        <v>30</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>33</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>17</v>
-      </c>
-      <c r="G175" t="s">
-        <v>18</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>20</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>17</v>
-      </c>
-      <c r="G176" t="s">
-        <v>32</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>35</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>17</v>
-      </c>
-      <c r="G177" t="s">
-        <v>18</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>20</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>17</v>
-      </c>
-      <c r="G178" t="s">
-        <v>32</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>35</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>17</v>
-      </c>
-      <c r="G179" t="s">
-        <v>18</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>20</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>17</v>
-      </c>
-      <c r="G180" t="s">
-        <v>32</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>35</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>17</v>
-      </c>
-      <c r="G181" t="s">
-        <v>18</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>20</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>17</v>
-      </c>
-      <c r="G182" t="s">
-        <v>32</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>35</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>17</v>
-      </c>
-      <c r="G183" t="s">
-        <v>18</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>20</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>17</v>
-      </c>
-      <c r="G184" t="s">
-        <v>32</v>
-      </c>
-      <c r="H184" t="s"/>
-      <c r="I184" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G184" t="s"/>
+      <c r="H184" t="s">
+        <v>35</v>
+      </c>
+      <c r="I184" t="s"/>
+      <c r="J184" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>17</v>
-      </c>
-      <c r="G185" t="s">
-        <v>18</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>20</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>17</v>
-      </c>
-      <c r="G186" t="s">
-        <v>26</v>
-      </c>
-      <c r="H186" t="s"/>
-      <c r="I186" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G186" t="s"/>
+      <c r="H186" t="s">
+        <v>29</v>
+      </c>
+      <c r="I186" t="s"/>
+      <c r="J186" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>17</v>
-      </c>
-      <c r="G187" t="s">
-        <v>18</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>20</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>17</v>
-      </c>
-      <c r="G188" t="s">
-        <v>26</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>29</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>17</v>
-      </c>
-      <c r="G189" t="s">
-        <v>18</v>
-      </c>
-      <c r="H189" t="s"/>
-      <c r="I189" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
+        <v>20</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G190" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H190" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I190" t="s">
-        <v>230</v>
+        <v>53</v>
+      </c>
+      <c r="J190" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
